--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>表名</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>C币冻结</t>
+  </si>
+  <si>
+    <t>Coinstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --币种状态  0 未开启  1第一阶段 2第二阶段 3 结束</t>
   </si>
   <si>
     <t>pointDIn</t>
@@ -221,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,17 +248,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,67 +265,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,55 +370,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +401,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,163 +569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +599,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,15 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,15 +663,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,148 +697,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1222,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="42" spans="1:5">
+    <row r="2" ht="28" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1370,20 +1369,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
@@ -1391,55 +1396,55 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -1447,21 +1452,21 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="126" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>表名</t>
   </si>
@@ -219,7 +219,94 @@
     <t xml:space="preserve">   datetime   ,  --更新时间  </t>
   </si>
   <si>
+    <t>LevelInt</t>
+  </si>
+  <si>
+    <t>会员级别0无 1 23456</t>
+  </si>
+  <si>
     <t>USDT账户对账单使用原来的MemberAccount 表,其他账户分别创建对应对账单表 表名 为AccountA.AccountB,AccountC,AccountD,AccountE  结构与MemberAccount 一样</t>
+  </si>
+  <si>
+    <t>参数表 config</t>
+  </si>
+  <si>
+    <t>限购数量表Levelbuy</t>
+  </si>
+  <si>
+    <t>para1  --X1 机器价格20</t>
+  </si>
+  <si>
+    <t>levelint</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>para2  --X2 机器价格50</t>
+  </si>
+  <si>
+    <t>countin</t>
+  </si>
+  <si>
+    <t>限购数量</t>
+  </si>
+  <si>
+    <t>para3  --X3 机器价格100</t>
+  </si>
+  <si>
+    <t>countout</t>
+  </si>
+  <si>
+    <t>数量出</t>
+  </si>
+  <si>
+    <t>para4  --X4 机器价格500</t>
+  </si>
+  <si>
+    <t>para5  --X5 机器价格1000</t>
+  </si>
+  <si>
+    <t>para6  --X6 机器价格1500</t>
+  </si>
+  <si>
+    <t>para7  --X7 机器价格3000</t>
+  </si>
+  <si>
+    <t>para8  --X1 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para9  --X2 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para10  --X3 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para11  --X4 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para12  --X5 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para13  --X6 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t>para14  --X7 机器收益率 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para15 --A币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">para16 --B币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">para17 --C币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">para18 --D币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">para19 --E币每日涨幅 0.01 </t>
   </si>
 </sst>
 </file>
@@ -228,8 +315,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -248,6 +335,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -256,6 +357,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -264,45 +403,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -331,14 +465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -346,45 +472,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -401,13 +488,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,19 +602,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,145 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,26 +685,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,17 +736,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,32 +779,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1200,17 +1287,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.3636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="12.5454545454545" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4545454545455" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.3636363636364" style="1" customWidth="1"/>
     <col min="6" max="6" width="58.3636363636364" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1464,9 +1552,143 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" ht="126" spans="1:1">
+    <row r="20" ht="28" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" ht="112" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" ht="28" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" ht="28" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" ht="28" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" ht="28" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" ht="28" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" ht="28" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" ht="28" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" ht="28" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" ht="28" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" ht="28" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>表名</t>
   </si>
@@ -225,6 +225,18 @@
     <t>会员级别0无 1 23456</t>
   </si>
   <si>
+    <t>ARate</t>
+  </si>
+  <si>
+    <t>出局总值</t>
+  </si>
+  <si>
+    <t>IRate</t>
+  </si>
+  <si>
+    <t>已使用出局值</t>
+  </si>
+  <si>
     <t>USDT账户对账单使用原来的MemberAccount 表,其他账户分别创建对应对账单表 表名 为AccountA.AccountB,AccountC,AccountD,AccountE  结构与MemberAccount 一样</t>
   </si>
   <si>
@@ -276,12 +288,24 @@
     <t>para8  --X1 机器收益率 0.005</t>
   </si>
   <si>
+    <t>MX0-挖矿奖励</t>
+  </si>
+  <si>
+    <t>cs ---领取状态0未领,1已领,2过期</t>
+  </si>
+  <si>
     <t>para9  --X2 机器收益率 0.005</t>
   </si>
   <si>
+    <t xml:space="preserve">MX1-动态 </t>
+  </si>
+  <si>
     <t>para10  --X3 机器收益率 0.005</t>
   </si>
   <si>
+    <t>MX2-社区</t>
+  </si>
+  <si>
     <t>para11  --X4 机器收益率 0.005</t>
   </si>
   <si>
@@ -307,6 +331,30 @@
   </si>
   <si>
     <t xml:space="preserve">para19 --E币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t>para20 --代数奖1代50%</t>
+  </si>
+  <si>
+    <t>para21 --代数奖2代30%</t>
+  </si>
+  <si>
+    <t>para22 --代数奖3代20%</t>
+  </si>
+  <si>
+    <t>para23 --代数奖4代10%</t>
+  </si>
+  <si>
+    <t>para24 --代数奖5代5%</t>
+  </si>
+  <si>
+    <t>para25 --代数奖6代5%</t>
+  </si>
+  <si>
+    <t>para26 --代数奖小区无限代20%</t>
+  </si>
+  <si>
+    <t>para27 --代数奖代数6</t>
   </si>
 </sst>
 </file>
@@ -314,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -335,6 +383,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -343,7 +421,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,8 +456,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,113 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -488,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,45 +727,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,6 +763,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -779,6 +812,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -787,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +847,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,20 +1335,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.3636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.3666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1309,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:6">
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:6">
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1552,7 +1600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:2">
+    <row r="20" ht="27" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1560,135 +1608,198 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="112" spans="1:1">
-      <c r="A22" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="25" ht="94.5" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" ht="28" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" ht="28" spans="1:1">
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" ht="28" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" ht="28" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" ht="28" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" ht="28" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" ht="28" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="28" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" ht="28" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" ht="28" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" ht="28" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" ht="28" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" ht="28" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" ht="28" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1818,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1724,7 +1835,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -1337,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>表名</t>
   </si>
@@ -225,6 +225,18 @@
     <t>会员级别0无 1 23456</t>
   </si>
   <si>
+    <t>ARate</t>
+  </si>
+  <si>
+    <t>出局总值</t>
+  </si>
+  <si>
+    <t>IRate</t>
+  </si>
+  <si>
+    <t>已使用出局值</t>
+  </si>
+  <si>
     <t>USDT账户对账单使用原来的MemberAccount 表,其他账户分别创建对应对账单表 表名 为AccountA.AccountB,AccountC,AccountD,AccountE  结构与MemberAccount 一样</t>
   </si>
   <si>
@@ -276,12 +288,24 @@
     <t>para8  --X1 机器收益率 0.005</t>
   </si>
   <si>
+    <t>MX0-挖矿奖励</t>
+  </si>
+  <si>
+    <t>cs ---领取状态0未领,1已领,2过期</t>
+  </si>
+  <si>
     <t>para9  --X2 机器收益率 0.005</t>
   </si>
   <si>
+    <t xml:space="preserve">MX1-动态 </t>
+  </si>
+  <si>
     <t>para10  --X3 机器收益率 0.005</t>
   </si>
   <si>
+    <t>MX2-社区</t>
+  </si>
+  <si>
     <t>para11  --X4 机器收益率 0.005</t>
   </si>
   <si>
@@ -307,6 +331,30 @@
   </si>
   <si>
     <t xml:space="preserve">para19 --E币每日涨幅 0.01 </t>
+  </si>
+  <si>
+    <t>para20 --代数奖1代50%</t>
+  </si>
+  <si>
+    <t>para21 --代数奖2代30%</t>
+  </si>
+  <si>
+    <t>para22 --代数奖3代20%</t>
+  </si>
+  <si>
+    <t>para23 --代数奖4代10%</t>
+  </si>
+  <si>
+    <t>para24 --代数奖5代5%</t>
+  </si>
+  <si>
+    <t>para25 --代数奖6代5%</t>
+  </si>
+  <si>
+    <t>para26 --代数奖小区无限代20%</t>
+  </si>
+  <si>
+    <t>para27 --代数奖代数6</t>
   </si>
 </sst>
 </file>
@@ -314,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -335,6 +383,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -343,7 +421,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,8 +456,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,113 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -488,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,45 +727,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,6 +763,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -779,6 +812,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -787,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +847,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,20 +1335,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5454545454545" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.3636363636364" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.4583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.3666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1309,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:6">
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:6">
+    <row r="17" ht="27" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1552,7 +1600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:2">
+    <row r="20" ht="27" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1560,135 +1608,198 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="112" spans="1:1">
-      <c r="A22" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="25" ht="94.5" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:1">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" ht="28" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" ht="28" spans="1:1">
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" ht="28" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" ht="28" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" ht="28" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" ht="28" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" ht="28" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" ht="28" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" ht="28" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" ht="28" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" ht="28" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" ht="28" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" ht="28" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" ht="28" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1818,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1724,7 +1835,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Web/文档/表字段说明.xlsx
+++ b/Web/文档/表字段说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
   <si>
     <t>表名</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>para27 --代数奖代数6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para28=10000 </t>
+  </si>
+  <si>
+    <t>机器价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  para29=0.005</t>
+  </si>
+  <si>
+    <t>收益率</t>
   </si>
 </sst>
 </file>
@@ -362,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -380,6 +392,103 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,6 +501,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -401,72 +518,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,45 +538,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -536,31 +548,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,151 +722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,17 +742,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,15 +791,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,22 +810,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,21 +839,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -835,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1800,6 +1812,22 @@
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
